--- a/Mu Calculationxlsx.xlsx
+++ b/Mu Calculationxlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K E S SRINIVAS\Documents\ABS Project SAE\ABS-Simulink\version 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K E S SRINIVAS\Documents\ABS Project SAE\ABS-Simulink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC20C69A-47BE-4FCD-BC58-1FB2201321A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849E73F2-9AE2-4F8B-BB7F-1BABAF64993E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4BA73F7-7503-47F0-9BBA-406C6E08481F}"/>
   </bookViews>
@@ -101,6 +101,7975 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14194184100203844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26751633783481155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37857430262908026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47675725848813977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5635211057996462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64015711237123618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70781053001077809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76749710595185661</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82011772717447795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86647140875238149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90726681348371152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94313246888688418</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97462582886302118</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0022413106695554</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0264174230763692</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0475430884731518</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0659632500756147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.08198384507128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0958762154041122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1078810197895521</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1182117033605985</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1270575749678258</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1345865364996599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1409475035723089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1462725524891342</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1506788244227932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1542702142732963</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1571388685507347</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1593665138780787</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1610256352674655</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1621805211575154</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1628881902782848</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1631992137067371</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1631584439645373</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1628056616697884</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1621761490656721</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1613011986947182</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1602085645524136</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1589228622245571</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1574659237772542</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1558571125161106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1541136021525897</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1522506244023627</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1502816885853451</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1482187763934557</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1460725146341242</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1438523284400368</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1415665771539911</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1392226748479528</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1368271972138673</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1343859763673054</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1319041849307583</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1293864106088227</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1268367223304647</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1242587289119386</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1216556310861336</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1190302676484614</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1163851563845877</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1137225303700755</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1110443701652779</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1083524323696483</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1056482749471412</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1029332796878271</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.1002086721295594</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.097475539226906</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0947348450220864</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0919874445438478</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0892340961346592</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0864754723839556</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0837121698250511</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0809447175355338</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0781735847651295</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0753991877010094</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0726218954680811</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.0698420354507692</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0670598980130102</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.064275740684514</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.061489791873643</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0587022541604416</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0559133072172917</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0531231103993002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0503318050417683</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0475395164978634</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0447463559458705</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0419524219920844</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0391578020924412</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.0363625738133995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0335668059502356</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0307705595188865</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0279738886356338</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0251768412973128</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0223794600732989</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0195817827192402</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0167838427213929</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0139856697794014</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0111872902344885</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0083887274492218</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0055900021443411</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0027911326974928</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99999213540818777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1398286023003476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26353353843995936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37293806554681008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46965926762909005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55513136954155218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63062641461872415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69727260409038938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75607056268397077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80790776491970528</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85357133008665664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89375937036842912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92909105572778361</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96011554065849336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98731988150400141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0111360584891393</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0319472037035693</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0500931248275733</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0658752042373483</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0795607441216086</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0913868202543047</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1015636999844036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1102778737208789</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.117694743618701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1239610082293894</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1292067774963244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1335474485873098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1370853696088097</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1399113151881075</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1421057951972751</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1437402154872109</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1448779073663782</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1455750406665366</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1458814335594012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1458412707995855</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1454937407489478</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1448736003665023</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1440116763095154</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1429353093703132</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1416687486563664</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1402335011966616</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.138648642014741</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1369310891388151</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1350958475138515</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1331562253321954</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1311240259016124</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1290097178169816</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1268225858890442</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1245708650061974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1222618588592559</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1199020452408661</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1174971694377103</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.115052327061963</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1125720375161983</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1100603091509218</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1075206970541136</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1049563543059584</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1023700774377101</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0997643467500895</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0971413620724959</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.09450307447858</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0918512144154366</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0891873166519586</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0865127424060426</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.0838286989696604</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0811362571147345</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0784363665307657</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0757298695167816</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0730175131250028</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0702999599313121</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0675777975877998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0648515472951143</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0621216713167638</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0593885796436995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0566526359052748</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.0539141626117958</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0511734458042425</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0484307391782077</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0456862677414958</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0429402310581273</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0401928061255108</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0374441499262648</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0346944016914821</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0319436849080645</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0291921090990681</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0264397714027311</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0236867579729403</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.0209331452213402</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0181790009189788</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0154243851733844</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0126693512951519</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.009913946566537</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0071582129231396</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.004402187558499</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0016459034603267</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99888938988609666</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99613267278486206</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99337577517136699</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99061871745785979</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.98786151774837927</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.98510419209976829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.789933399052687E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1468160790490052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20776598240902061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26164993105057865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30926694004741878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35132567219768562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38845465501979509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42121134241486874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45009015164033961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47552959146609036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49791858428180963</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5176020733032094</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53488599571781126</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5500416934695801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56330982527395668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57490383626393993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58501303529010384</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59380532424087473</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60142961873246048</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.60801799506822252</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61368759442081822</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61854231169025831</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.62267429338663316</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6261652661329139</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6290877149412375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63150592825022411</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63347692478993023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.63505127563731922</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63627383331405607</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.63718437843824405</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63781819325306421</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.63820657030104699</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63837726357767943</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.63835488866875967</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63816127764039343</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63781579379818665</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63733561085360224</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.63673596052231196</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.63603035212423109</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.63523076735127848</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.63434783301088382</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63339097423573298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.63236855036862416</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.6312879754815226</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63015582526637348</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.62897793183874873</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62775946782113823</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.62650502091813942</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.62521866005871807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.62390399405912889</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.6225642236522605</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.62120218763352486</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.61982040378858783</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.61842110519301252</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61700627240715145</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.61557766203045872</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.61413683202688829</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.61268516418651109</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.61122388404718009</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6097540785634632</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60827671177758047</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.60679263871827849</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.60530261772802674</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.60380732139625981</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.60230734625629212</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.60080322138571163</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.59929541603424397</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.59778434638906031</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.59627038157506884</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.5947538489766937</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.59323503895787155</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.59171420904831218</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.59019158765637791</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.58866737736211328</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.58714175783790001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.58561488843884502</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.58408691050024986</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.5825579493752816</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58102811624222572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.57949750970737623</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.57796621722666985</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.57643431636656484</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.57490187592233777</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.57336895690992529</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.57183561344560918</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.57030189352622518</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.56876783972114797</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.56723348978602595</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.56569887720711509</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.5641640316840606</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.56262897955808422</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.56109374419175451</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.55955834630581036</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.55802280427789885</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.5564871344075305</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.55495135115107475</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.55341546733018065</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.55187949431663141</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.55034344219629294</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.54880731991452669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7709245999152996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1087640264485505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15391682540643978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19383503636238386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22911058424160835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26026845935729798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28777428634729518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31204103721874094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33343498528456106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35228098583141337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36886715965201022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38344904696565174</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39625329161523798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40748090865689324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41731018245198204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42589923704414567</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43338831587922588</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43990180373545545</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44555002001466543</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45043080924890622</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45463095175327434</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.45822741476273376</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46128846209093161</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46387463830927966</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46603964163549538</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.4678310981162877</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.4692912482658026</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.47045755605929412</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.47136324906205507</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.47203779748080643</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47250733904416325</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4727950558378034</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4729215085272806</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.47290493278706669</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47276150220952812</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.4725055614842702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47214983320966153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.47170560131820377</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47118287376023948</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.47059052679145652</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4699364329444265</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.46922757452917563</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46847014429916151</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.4676696347339856</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46683091722605441</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46595831231284873</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46505565196735787</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46412633484473864</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46317337528170743</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.46219944675510105</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.46120692042616274</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46019789932625865</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.45917424867688567</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.45813762278110909</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.45708948887412537</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.4560311482768164</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.45496375515726656</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.4538883331707374</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.45280579021800071</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.45171693153480535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.45062247130119337</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.44952304293803963</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.44841920823926296</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.44731146547137141</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.44620025655711376</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.44508597344680723</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.44396896376919859</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.44284953584332748</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.44172796312365159</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.44060448814251746</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.43947932600682005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.43835266749926072</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.43722468182891611</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.43609551907077426</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.43496531232940927</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.43383417965798798</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.432702225760277</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.43156954350018645</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.43043621524061609</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.42930231403090502</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.42816790466000493</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.42703304459056107</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.42589778478736806</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.42476217045214348</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.42362624167521495</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.42249003401351271</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.42135357900320541</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.42021690461436517</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.4190800356542207</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.41794299412481017</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.4168057995401907</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.41566846920777861</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.41453101847787499</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.41339346096497559</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.41225580874405476</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.41111807252465449</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.40998026180528591</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.40884238501037318</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.40770444961170965</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.40656646223618209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2752060937976066E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0574372547794482E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11402438873057734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14359652674375731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16972929535721712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1928116169606455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21318843476975441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23116568597206535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24701471251154328</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26097617310362908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27326351288132139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28406604069519459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29355165843367448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30186928171296928</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30915098683644038</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31551391497674519</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32106196103389439</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32588727151797836</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33007157305196821</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33368735064800098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3367988927446966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.33946321807211194</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34173089770721005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34364678417165601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.34525065808355315</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34657780168608243</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34765950752177421</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34852352958611577</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34919448346490506</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3496942012242481</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.35004204616975021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.35025519201287497</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.35034887046929386</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35033659085892216</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35023033487367866</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35004072932099306</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.34977719933355128</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34944810425415151</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34906085815475907</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34862203672731912</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.34813747208740348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34761233685750204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.34705121874221245</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.34645818667050016</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.34583684945861992</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.34519040783946081</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34452170060843429</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.34383324555120648</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.34312727574334007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.34240577174518833</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.34167049015620454</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.34092298894034323</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.34016464988767509</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.33939669853605325</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.33862022184004542</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.33783618384187175</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.33704543957027894</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.33624874736773641</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.33544677982367849</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.33464013347141985</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.33382933738854853</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.33301486082478998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.33219711996731549</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.33137648394103303</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.33055328013036706</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.32972779889925408</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.32890029777740376</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.3280710051731785</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.32724012366662303</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.32640783293011882</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.32557429231877305</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.32473964316788706</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32390401083062786</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.32306750648528115</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.32223022873814067</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.3213922650451434</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.32055369297274738</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.31971458131622937</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.31887499109152612</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.31803497641491918</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.31719458528324429</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.31635386026587614</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.31551283911846323</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31467155532726149</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.31383003859191611</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.31298831525364895</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.31214640867502824</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.31130433957679315</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.31046212633659065</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.30961978525393158</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.30877733078518482</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.30793477575200001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.30709213152615966</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.30624940819353041</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.30540661469947322</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.30456375897781196</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.30372084806521676</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.30287788820265449</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.30203488492536584</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.30119184314266922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1671505714547799E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9690963303402955E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4471344773706811E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10637892343838498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12573855458409533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14283835900355032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1579338769160499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17125175216449418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18299299980500755</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19333590419895447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20243858938997616</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21044129882391446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21746841727900207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22363026415707007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2290246839901689</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23373845709339514</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23784855070171265</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24142322862876858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24452303544597473</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24720166937104851</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24950675645069884</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25148053719907193</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25316047559142141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25457979919304047</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25576797821064995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25675115037286483</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25755249776536304</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2581925810536983</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25868963591234245</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25905983593366205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25931752580726203</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25947542813151142</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.25954482683891189</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25953572987980561</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.25945701350988076</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.25931655026170886</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25912132244531599</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25887752281415993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.25859064384784208</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.25826555693876901</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2579065826244214</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.25751755287778855</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.25710186635402743</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25666253738985434</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25620223946210591</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.25572334373202582</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.25522795323097974</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.25471793318046493</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2541949378835463</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.25366043457542081</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.25311572457696979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.25256196205627801</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.25200017066860692</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25143125831472835</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.25085603023039099</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.25027520059563713</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.24968940283134147</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.24909919873142292</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.24850508656238945</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.24790750824698979</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.24730685573554137</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.24670347665679079</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.2460976793297778</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.24548973720895992</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.2448798928266839</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.24426836128984464</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.24365533338114337</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.24304097830965671</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.24242544615037295</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.24180887000786602</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.24119136793530288</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.24057304463645002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.23995399297521758</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.23933429531450529</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.23871402470365224</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.23809324593161013</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.23747201646102437</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.23685038725668939</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.23622840352032298</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.23560610534225249</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.23498352827940838</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23436070386795912</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.233737660077977</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.23311442171669056</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.23249101078613812</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.23186744680037674</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.23124374706682274</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.23061992693577715</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.22999600002173576</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.22937197839967313</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.22874787277913083</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.2281236926586204</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.22749944646256562</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.22687514166276027</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.22625078488609071</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.2256263820100782</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.22500193824761622</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.22437745822212671</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.22375294603421689</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.22312840532079925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3462828509762165E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.42201532252047E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.257791133384942E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8807444779661062E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3149412278080573E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1058172589621066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11700029368231354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12686641832712711</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13556454851275565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14322676054256053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14997019558919905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15589874855268204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16110456594309969</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16566937438342325</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16966565888578966</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17315770788881907</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17620254012256814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17885072666399993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18114712003477965</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1831315008530105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18483915136187348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18630136410389905</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18754589307457431</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18859735385969731</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18947757852537411</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19020593037720993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19079958312666839</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.19127376848942104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19164199578538302</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19191624670647331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19210714806012136</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.19222412497901328</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19227553680594731</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19226879761288859</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19221048309178235</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19210642535820047</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1919617970346327</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19178118582567683</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19156866066029823</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19132783035475176</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19106189564192635</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19077369531723354</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19046574716633946</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.19014028426480681</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.18979928717298872</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.18944451249033872</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18907751818081117</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.18869968603447676</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.18831224158918861</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.18791627179951459</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.18751274070767454</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.18710250334241546</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.18668631804620664</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.18626485740848245</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.18583871796255752</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.18540842878601993</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.18497445912859511</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.18453722517745438</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.18409709605750565</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.1836543991531733</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.18320942482839409</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.1827624306128775</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.182313644914986</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.18186327031476421</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.18141148648459376</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.18095845277958175</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.18050431053502944</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.18004918510410389</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17959318766509094</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.17913641682428416</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.17867896003762065</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.17822089487155843</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.17776229012137412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.17730320680300463</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.17684369903273134</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.17638381480739013</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.17592359669635574</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.1754630824552765</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.17500230557040855</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.1745412957413969</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.17408007930946348</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.1736186796371765</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.17315711744527515</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.17269541111140632</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.17223357693508096</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.17177162937266802</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.17130958124581686</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.17084744392631024</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.17038522750001467</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.16992294091229129</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.16946059209696368</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.16899818809070227</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.16853573513447365</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.16807323876351876</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.16761070388715585</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.16714813485955973</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.16668553554253684</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.16622290936120243</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.16576025935336103</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.16529758821330368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="1">
+                  <c:v>1.7381690868762286E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2759095230569066E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6358856928320626E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8381991018141233E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9006781861395403E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8391353501724353E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6675949384969947E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3984954289364778E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10042868761674005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10610499389914615</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11110065345167963</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11549263350930442</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11934919788566757</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12273089115218096</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12569141152656196</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12827838505551958</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13053405225319992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13249587709485669</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13419708714578302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13566715261269971</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13693221122422181</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13801544506602734</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13893741480366983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13971635611162125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14036844258224809</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14090801890515534</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14134780767871197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1416990928354197</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14197188232562069</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14217505240500314</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.14231647560613839</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14240313423905276</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.14244122105720403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14243622854019344</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14239302808042759</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.14231594021538729</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.14220879691806163</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.14207499684360778</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1419175543287419</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14173914285030076</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14154213356952794</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1413286295177891</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.14110049591658153</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14085938706897019</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.14060677021015189</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14034394666100819</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.14007207058962365</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.13979216565125985</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.13950513974668846</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13921179811165846</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.13891285492621178</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.13860894361122336</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.13830062596061207</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.13798840024088585</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.13767270837479345</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.13735394231265227</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.13703244968320893</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13670853880550324</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.13638248313399262</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.13605452520102382</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.13572488011349182</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.13539373865409782</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.13506127003191842</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.13472762432194188</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.13439293462874224</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.1340573190054864</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.13372088215594075</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.13338371694401549</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.13304590573261049</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.13270752157106472</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13236862924832987</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.13202928622705137</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.13168954347202369</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.13134944618496452</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.13100903445620124</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.13066834384266438</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.13032740588052236</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.12998624853984747</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.12964489662786832</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.12930337214662313</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.12896169461016904</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.12861988132592228</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.12827794764418396</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.12793590717944978</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.12759377200669442</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.12725155283545941</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.12690925916425622</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.1265668994175087</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.12622448106701054</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.1258820107396483</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.12553949431294301</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.12519693699978832</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.12485434342360602</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.12451171768500349</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.12416906342089307</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.12382638385692683</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.12348368185400135</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.12314095994950443</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.12279822039389698</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.12245546518315892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="1">
+                  <c:v>1.2876673301836141E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.426853463985313E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4343485902476822E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.325044270591543E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1121481353530389E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8073743017978997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4211122599272086E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.962576660749982E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4399401665633441E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8604512785810002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2305388406649471E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5559047258208662E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8416060417450509E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0921280406040292E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.311448784208122E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5030964968754308E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6702004328589955E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.8155359917075316E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9415647320008418E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10050469860349528</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.10144187707314117</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10224435644040976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10292736842097247</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.10350442233474454</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10398749987364493</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.10438722784510306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10471303138180507</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1049732698265492</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10517535725130056</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10532586934800442</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.10543063823223257</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10549483652647489</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.10552305193532914</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10551935338776064</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.10548734970002427</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10543024160500895</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1053508678981262</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1052517463650422</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.10513511008131962</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.10500293960731165</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.10485699154247174</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.10469882385075426</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.10452981832222993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.10435120049475188</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1041640573228879</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.10396935284885801</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10376794210140899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.10356058342301029</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.10334794940309616</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.10313063657498135</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.10290917401625382</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.10268403097663907</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.10245562364330844</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.10222432114116979</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.10199045085464753</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.10175430314767839</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.10151613554997189</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.10127617646989051</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.10103462848747882</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.10079167127511843</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.10054746418791649</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.10030214856117428</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.10005584974805884</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.9808678926855937E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.956073470385926E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.9312104535005885E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.906286598675372E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.8813087854379464E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.8562831153820071E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.8312150001356874E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.8061092393825752E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.7809700900601454E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.7558013277332323E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.7306063010274488E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.7053879799072887E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.6801489984949529E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.6548916930472642E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.629618135638135E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.6043301640322681E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.5790294081807351E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.5537173137204529E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.5283951628163457E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.5030640926466931E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.4777251117981423E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.4523791148068151E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.4270268950550656E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.4016691562099297E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.3763065223680761E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.3509395470535953E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.3255687211983157E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.300194480219709E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2748172102984319E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.2494372539459968E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.2240549149428683E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.1986704627181393E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.1732841362339945E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.1478961474308632E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.1225066842830563E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.0971159135088214E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.0717239829739851E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="1">
+                  <c:v>9.5392742037660322E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7978572650448634E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5442280118280543E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2040716009092855E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7871724854936006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3022086970906551E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7568769591968395E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.158003653176859E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5116432361719016E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8231655299537118E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0973331391931763E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3383701153049157E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5500228558142956E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7356141172506323E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8980909202860069E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.0400670377819233E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1638606783061803E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2715279084141368E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3648922955529841E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4455711989593734E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5149990875938003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5744482212931716E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.6250469933076478E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6677961986714518E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.7035834629534006E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.7331960394106336E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.7573321590457725E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.7766110972046054E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.7915821018472511E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.8027323122143735E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.810493782054044E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.815249708665184E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.8173399575635044E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8170659624206246E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.8146950709202134E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.8104643991866368E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8045842503564583E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.7972411465794048E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.7886005181619755E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.7788090886238517E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.7679969900531873E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.7562796392584385E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.7437594017657624E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.7305270676523305E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.71666316049303E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.7022390982920699E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.6873182231369352E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.6719567144195103E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.656204398790592E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.6401054685250602E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.6236991186546449E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.6070201120540165E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.5900992806271522E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.5729639698197931E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.5556384328666182E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.5381441804571236E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.5205002908614274E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.5027236849871962E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.4848293703332472E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.4668306573569862E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.4487393513751055E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.430565922764247E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4123196579154269E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.3940087931186296E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.375640633307759E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.3572216573779839E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.3387576115938366E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.3202535924347681E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.3017141200725597E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.2831432035399352E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.2645443985299554E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2459208586594603E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2272753809356757E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.208610446081469E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.189928254300651E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.1712307569989461E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.152519684917974E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.1337965730878458E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.115062782958137E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.0963195220263023E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.0775678612465087E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.0588087504698943E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.0400430321388485E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.021271453432737E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.0024946770402163E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.9837132907133948E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.9649278157416297E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.9461387144671052E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.9273463969505539E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.9085512268832208E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.8897535268303001E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.8709535828814602E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.8521516487754688E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.8333479495584312E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.8145426848283286E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.795736031612698E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.7769281469208756E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.7581191700076537E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.739309224380946E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.720498419582456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="1">
+                  <c:v>7.0668681422289617E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3318854201302351E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8848104687310435E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3736346223224396E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8056063821181278E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1871545919801098E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5239811249140621E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.82114308861628E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0831257352532922E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3139071266354204E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5170154870807611E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6955800708423617E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8523762774689297E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9898656655402718E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1102314416669924E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2154099364096158E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3071185209145076E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3868803667488127E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4560464059040525E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.515814807572126E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5672482524959717E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6112892539442086E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6487737461966531E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6804431364498233E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.7069549938982438E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.7288925300990917E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7467730073013569E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.7610551959648156E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.7721459889859987E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.780406267990397E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.7861561062668966E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7896793833566544E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7912278778262903E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7910248972320659E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.7892684976093026E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7861343389033454E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7817782175096283E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.7763383124352308E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.769937177465459E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.7626835080570954E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.7546737084321405E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.7459932814652712E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.7367180614034348E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7269153071900558E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.716644672156606E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7059590640618892E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.6949054078784478E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6835253223234183E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.6718557198875863E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6599293390133955E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.6477752160945131E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.6354191041018978E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.6228838438717919E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.610189693408657E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5973546199506501E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5843945590084917E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.5713236441123033E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.5581544105787951E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.5448979762365375E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.5315642017149023E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.518161832607598E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5046986255604155E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.4911814601010252E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.4776164378231185E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.464008970354832E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.4503638573797558E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.4366853558353585E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.4229772412864766E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.409242862358727E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.3954851890166002E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.3817068553822997E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.3679101977126456E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.3540972880815503E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.3402699642537167E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.3264298561802169E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.3125784094979665E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.298716906371894E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.2848464839802732E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.2709681509097578E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.2570828016964624E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.243191229722749E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.2292941386556463E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.2153921525918266E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.2014858250553776E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.1875756469781327E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.1736620537775599E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.1597454316343161E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.1458261230599149E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.1319044318348175E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.1179806273881252E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1040549486820116E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.0901276076569163E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.0761987922871413E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.062268669290941E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.0483373865341373E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.034405075161956E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.0204718514897731E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.0065378186800763E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9926030682297798E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.9786676812893706E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D774-4712-BE82-B576EB1975C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="69533535"/>
+        <c:axId val="69533951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="69533535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69533951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69533951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69533535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCA6417-ED3A-4605-BF2D-0B8AA60F4F38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,7 +8372,7 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -477,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:T18" si="0">+($B$3*(1-EXP(-$B$4*$C3))-$B$5*$C3)*EXP(-$B$6*E$2)</f>
+        <f t="shared" ref="E3:N18" si="0">+($B$3*(1-EXP(-$B$4*$C3))-$B$5*$C3)*EXP(-$B$6*E$2)</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -512,12 +8481,12 @@
         <v>0.01</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:J67" si="1">+($B$3*(1-EXP(-$B$4*$C4))-$B$5*$C4)*EXP(-$B$6*D$2)</f>
+        <f t="shared" ref="D4:D67" si="1">+($B$3*(1-EXP(-$B$4*$C4))-$B$5*$C4)*EXP(-$B$6*D$2)</f>
         <v>0.14194184100203844</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.10515310209141743</v>
+        <v>0.1398286023003476</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -572,7 +8541,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.19818097739807441</v>
+        <v>0.26353353843995936</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -627,7 +8596,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.28045474126949743</v>
+        <v>0.37293806554681008</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -676,7 +8645,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.35319046393027753</v>
+        <v>0.46965926762909005</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -725,7 +8694,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.41746670291508797</v>
+        <v>0.55513136954155218</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -774,7 +8743,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.47424005294360572</v>
+        <v>0.63062641461872415</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -823,7 +8792,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.52435893742236828</v>
+        <v>0.69727260409038938</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -872,7 +8841,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.56857584040962228</v>
+        <v>0.75607056268397077</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -921,7 +8890,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.6075581553949313</v>
+        <v>0.80790776491970528</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -970,7 +8939,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.64189780730352075</v>
+        <v>0.85357133008665664</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1019,7 +8988,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.67211978644857517</v>
+        <v>0.89375937036842912</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1068,7 +9037,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.69868971746793718</v>
+        <v>0.92909105572778361</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -1117,7 +9086,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.72202057236874784</v>
+        <v>0.96011554065849336</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -1166,7 +9135,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.74247862446393287</v>
+        <v>0.98731988150400141</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1215,7 +9184,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.76038872904014987</v>
+        <v>1.0111360584891393</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -1263,8 +9232,8 @@
         <v>1.0475430884731518</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:BP22" si="2">+($B$3*(1-EXP(-$B$4*$C19))-$B$5*$C19)*EXP(-$B$6*E$2)</f>
-        <v>0.77603900689011174</v>
+        <f t="shared" ref="E19:N22" si="2">+($B$3*(1-EXP(-$B$4*$C19))-$B$5*$C19)*EXP(-$B$6*E$2)</f>
+        <v>1.0319472037035693</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -1313,7 +9282,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>0.78968499823311789</v>
+        <v>1.0500931248275733</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
@@ -1362,7 +9331,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>0.80155334691206914</v>
+        <v>1.0658752042373483</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
@@ -1411,7 +9380,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>0.81184506798308942</v>
+        <v>1.0795607441216086</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
@@ -1459,8 +9428,8 @@
         <v>1.1078810197895521</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:BP26" si="3">+($B$3*(1-EXP(-$B$4*$C23))-$B$5*$C23)*EXP(-$B$6*E$2)</f>
-        <v>0.82073844580754307</v>
+        <f t="shared" ref="E23:N26" si="3">+($B$3*(1-EXP(-$B$4*$C23))-$B$5*$C23)*EXP(-$B$6*E$2)</f>
+        <v>1.0913868202543047</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
@@ -1509,7 +9478,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>0.82839160442907145</v>
+        <v>1.1015636999844036</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
@@ -1558,7 +9527,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>0.83494478729351651</v>
+        <v>1.1102778737208789</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
@@ -1607,7 +9576,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>0.84052237917911099</v>
+        <v>1.117694743618701</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
@@ -1655,8 +9624,8 @@
         <v>1.1409475035723089</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:BP30" si="4">+($B$3*(1-EXP(-$B$4*$C27))-$B$5*$C27)*EXP(-$B$6*E$2)</f>
-        <v>0.84523469948768581</v>
+        <f t="shared" ref="E27:N30" si="4">+($B$3*(1-EXP(-$B$4*$C27))-$B$5*$C27)*EXP(-$B$6*E$2)</f>
+        <v>1.1239610082293894</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
@@ -1705,7 +9674,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>0.8491795927512914</v>
+        <v>1.1292067774963244</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
@@ -1754,7 +9723,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>0.85244383928502454</v>
+        <v>1.1335474485873098</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
@@ -1803,7 +9772,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>0.85510440632384865</v>
+        <v>1.1370853696088097</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
@@ -1851,8 +9820,8 @@
         <v>1.1571388685507347</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:BP34" si="5">+($B$3*(1-EXP(-$B$4*$C31))-$B$5*$C31)*EXP(-$B$6*E$2)</f>
-        <v>0.85722955768141151</v>
+        <f t="shared" ref="E31:N34" si="5">+($B$3*(1-EXP(-$B$4*$C31))-$B$5*$C31)*EXP(-$B$6*E$2)</f>
+        <v>1.1399113151881075</v>
       </c>
       <c r="F31">
         <f t="shared" si="5"/>
@@ -1901,7 +9870,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="5"/>
-        <v>0.85887983792912437</v>
+        <v>1.1421057951972751</v>
       </c>
       <c r="F32">
         <f t="shared" si="5"/>
@@ -1950,7 +9919,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="5"/>
-        <v>0.86010894528470494</v>
+        <v>1.1437402154872109</v>
       </c>
       <c r="F33">
         <f t="shared" si="5"/>
@@ -1999,7 +9968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="5"/>
-        <v>0.86096450579486206</v>
+        <v>1.1448779073663782</v>
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
@@ -2047,8 +10016,8 @@
         <v>1.1628881902782848</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:BP38" si="6">+($B$3*(1-EXP(-$B$4*$C35))-$B$5*$C35)*EXP(-$B$6*E$2)</f>
-        <v>0.86148875997374197</v>
+        <f t="shared" ref="E35:N38" si="6">+($B$3*(1-EXP(-$B$4*$C35))-$B$5*$C35)*EXP(-$B$6*E$2)</f>
+        <v>1.1455750406665366</v>
       </c>
       <c r="F35">
         <f t="shared" si="6"/>
@@ -2097,7 +10066,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="6"/>
-        <v>0.86171917179659829</v>
+        <v>1.1458814335594012</v>
       </c>
       <c r="F36">
         <f t="shared" si="6"/>
@@ -2146,7 +10115,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="6"/>
-        <v>0.86168896882872414</v>
+        <v>1.1458412707995855</v>
       </c>
       <c r="F37">
         <f t="shared" si="6"/>
@@ -2195,7 +10164,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="6"/>
-        <v>0.86142762127684025</v>
+        <v>1.1454937407489478</v>
       </c>
       <c r="F38">
         <f t="shared" si="6"/>
@@ -2243,8 +10212,8 @@
         <v>1.1621761490656721</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:BP42" si="7">+($B$3*(1-EXP(-$B$4*$C39))-$B$5*$C39)*EXP(-$B$6*E$2)</f>
-        <v>0.86096126686956209</v>
+        <f t="shared" ref="E39:N42" si="7">+($B$3*(1-EXP(-$B$4*$C39))-$B$5*$C39)*EXP(-$B$6*E$2)</f>
+        <v>1.1448736003665023</v>
       </c>
       <c r="F39">
         <f t="shared" si="7"/>
@@ -2293,7 +10262,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
-        <v>0.8603130876925672</v>
+        <v>1.1440116763095154</v>
       </c>
       <c r="F40">
         <f t="shared" si="7"/>
@@ -2342,7 +10311,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
-        <v>0.85950364441140903</v>
+        <v>1.1429353093703132</v>
       </c>
       <c r="F41">
         <f t="shared" si="7"/>
@@ -2391,7 +10360,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
-        <v>0.85855117270056003</v>
+        <v>1.1416687486563664</v>
       </c>
       <c r="F42">
         <f t="shared" si="7"/>
@@ -2439,8 +10408,8 @@
         <v>1.1574659237772542</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43:BP46" si="8">+($B$3*(1-EXP(-$B$4*$C43))-$B$5*$C43)*EXP(-$B$6*E$2)</f>
-        <v>0.85747184615238636</v>
+        <f t="shared" ref="E43:N46" si="8">+($B$3*(1-EXP(-$B$4*$C43))-$B$5*$C43)*EXP(-$B$6*E$2)</f>
+        <v>1.1402335011966616</v>
       </c>
       <c r="F43">
         <f t="shared" si="8"/>
@@ -2489,7 +10458,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="8"/>
-        <v>0.85628000945649319</v>
+        <v>1.138648642014741</v>
       </c>
       <c r="F44">
         <f t="shared" si="8"/>
@@ -2538,7 +10507,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="8"/>
-        <v>0.85498838521124954</v>
+        <v>1.1369310891388151</v>
       </c>
       <c r="F45">
         <f t="shared" si="8"/>
@@ -2587,7 +10556,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="8"/>
-        <v>0.8536082573491568</v>
+        <v>1.1350958475138515</v>
       </c>
       <c r="F46">
         <f t="shared" si="8"/>
@@ -2635,8 +10604,8 @@
         <v>1.1502816885853451</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:BP50" si="9">+($B$3*(1-EXP(-$B$4*$C47))-$B$5*$C47)*EXP(-$B$6*E$2)</f>
-        <v>0.8521496338205572</v>
+        <f t="shared" ref="E47:N50" si="9">+($B$3*(1-EXP(-$B$4*$C47))-$B$5*$C47)*EXP(-$B$6*E$2)</f>
+        <v>1.1331562253321954</v>
       </c>
       <c r="F47">
         <f t="shared" si="9"/>
@@ -2685,7 +10654,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="9"/>
-        <v>0.85062139088113919</v>
+        <v>1.1311240259016124</v>
       </c>
       <c r="F48">
         <f t="shared" si="9"/>
@@ -2734,7 +10703,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="9"/>
-        <v>0.84903140106347397</v>
+        <v>1.1290097178169816</v>
       </c>
       <c r="F49">
         <f t="shared" si="9"/>
@@ -2783,7 +10752,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="9"/>
-        <v>0.84738664667758801</v>
+        <v>1.1268225858890442</v>
       </c>
       <c r="F50">
         <f t="shared" si="9"/>
@@ -2831,8 +10800,8 @@
         <v>1.1415665771539911</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:BP54" si="10">+($B$3*(1-EXP(-$B$4*$C51))-$B$5*$C51)*EXP(-$B$6*E$2)</f>
-        <v>0.84569332047693868</v>
+        <f t="shared" ref="E51:N54" si="10">+($B$3*(1-EXP(-$B$4*$C51))-$B$5*$C51)*EXP(-$B$6*E$2)</f>
+        <v>1.1245708650061974</v>
       </c>
       <c r="F51">
         <f t="shared" si="10"/>
@@ -2881,7 +10850,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="10"/>
-        <v>0.84395691494112768</v>
+        <v>1.1222618588592559</v>
       </c>
       <c r="F52">
         <f t="shared" si="10"/>
@@ -2930,7 +10899,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="10"/>
-        <v>0.84218230146256157</v>
+        <v>1.1199020452408661</v>
       </c>
       <c r="F53">
         <f t="shared" si="10"/>
@@ -2979,7 +10948,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="10"/>
-        <v>0.84037380057872046</v>
+        <v>1.1174971694377103</v>
       </c>
       <c r="F54">
         <f t="shared" si="10"/>
@@ -3027,8 +10996,8 @@
         <v>1.1319041849307583</v>
       </c>
       <c r="E55">
-        <f t="shared" ref="E55:BP58" si="11">+($B$3*(1-EXP(-$B$4*$C55))-$B$5*$C55)*EXP(-$B$6*E$2)</f>
-        <v>0.83853524426259451</v>
+        <f t="shared" ref="E55:N58" si="11">+($B$3*(1-EXP(-$B$4*$C55))-$B$5*$C55)*EXP(-$B$6*E$2)</f>
+        <v>1.115052327061963</v>
       </c>
       <c r="F55">
         <f t="shared" si="11"/>
@@ -3077,7 +11046,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="11"/>
-        <v>0.83667003116934002</v>
+        <v>1.1125720375161983</v>
       </c>
       <c r="F56">
         <f t="shared" si="11"/>
@@ -3126,7 +11095,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="11"/>
-        <v>0.83478117563567389</v>
+        <v>1.1100603091509218</v>
       </c>
       <c r="F57">
         <f t="shared" si="11"/>
@@ -3175,7 +11144,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="11"/>
-        <v>0.83287135113843214</v>
+        <v>1.1075206970541136</v>
       </c>
       <c r="F58">
         <f t="shared" si="11"/>
@@ -3223,8 +11192,8 @@
         <v>1.1216556310861336</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:BP62" si="12">+($B$3*(1-EXP(-$B$4*$C59))-$B$5*$C59)*EXP(-$B$6*E$2)</f>
-        <v>0.8309429288388589</v>
+        <f t="shared" ref="E59:N62" si="12">+($B$3*(1-EXP(-$B$4*$C59))-$B$5*$C59)*EXP(-$B$6*E$2)</f>
+        <v>1.1049563543059584</v>
       </c>
       <c r="F59">
         <f t="shared" si="12"/>
@@ -3273,7 +11242,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="12"/>
-        <v>0.82899801176831966</v>
+        <v>1.1023700774377101</v>
       </c>
       <c r="F60">
         <f t="shared" si="12"/>
@@ -3322,7 +11291,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="12"/>
-        <v>0.82703846514831159</v>
+        <v>1.0997643467500895</v>
       </c>
       <c r="F61">
         <f t="shared" si="12"/>
@@ -3371,7 +11340,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="12"/>
-        <v>0.82506594328189986</v>
+        <v>1.0971413620724959</v>
       </c>
       <c r="F62">
         <f t="shared" si="12"/>
@@ -3419,8 +11388,8 @@
         <v>1.1110443701652779</v>
       </c>
       <c r="E63">
-        <f t="shared" ref="E63:BP66" si="13">+($B$3*(1-EXP(-$B$4*$C63))-$B$5*$C63)*EXP(-$B$6*E$2)</f>
-        <v>0.82308191340428105</v>
+        <f t="shared" ref="E63:N66" si="13">+($B$3*(1-EXP(-$B$4*$C63))-$B$5*$C63)*EXP(-$B$6*E$2)</f>
+        <v>1.09450307447858</v>
       </c>
       <c r="F63">
         <f t="shared" si="13"/>
@@ -3469,7 +11438,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="13"/>
-        <v>0.82108767683633688</v>
+        <v>1.0918512144154366</v>
       </c>
       <c r="F64">
         <f t="shared" si="13"/>
@@ -3518,7 +11487,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="13"/>
-        <v>0.819084387746152</v>
+        <v>1.0891873166519586</v>
       </c>
       <c r="F65">
         <f t="shared" si="13"/>
@@ -3567,7 +11536,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="13"/>
-        <v>0.81707306978898753</v>
+        <v>1.0865127424060426</v>
       </c>
       <c r="F66">
         <f t="shared" si="13"/>
@@ -3615,8 +11584,8 @@
         <v>1.1002086721295594</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:BP70" si="14">+($B$3*(1-EXP(-$B$4*$C67))-$B$5*$C67)*EXP(-$B$6*E$2)</f>
-        <v>0.81505463086561569</v>
+        <f t="shared" ref="E67:N70" si="14">+($B$3*(1-EXP(-$B$4*$C67))-$B$5*$C67)*EXP(-$B$6*E$2)</f>
+        <v>1.0838286989696604</v>
       </c>
       <c r="F67">
         <f t="shared" si="14"/>
@@ -3660,12 +11629,12 @@
         <v>0.65</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:J103" si="15">+($B$3*(1-EXP(-$B$4*$C68))-$B$5*$C68)*EXP(-$B$6*D$2)</f>
+        <f t="shared" ref="D68:D103" si="15">+($B$3*(1-EXP(-$B$4*$C68))-$B$5*$C68)*EXP(-$B$6*D$2)</f>
         <v>1.097475539226906</v>
       </c>
       <c r="E68">
         <f t="shared" si="14"/>
-        <v>0.81302987621178535</v>
+        <v>1.0811362571147345</v>
       </c>
       <c r="F68">
         <f t="shared" si="14"/>
@@ -3714,7 +11683,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="14"/>
-        <v>0.81099952000753817</v>
+        <v>1.0784363665307657</v>
       </c>
       <c r="F69">
         <f t="shared" si="14"/>
@@ -3763,7 +11732,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="14"/>
-        <v>0.80896419567374933</v>
+        <v>1.0757298695167816</v>
       </c>
       <c r="F70">
         <f t="shared" si="14"/>
@@ -3811,8 +11780,8 @@
         <v>1.0892340961346592</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71:BP74" si="16">+($B$3*(1-EXP(-$B$4*$C71))-$B$5*$C71)*EXP(-$B$6*E$2)</f>
-        <v>0.80692446500433745</v>
+        <f t="shared" ref="E71:N74" si="16">+($B$3*(1-EXP(-$B$4*$C71))-$B$5*$C71)*EXP(-$B$6*E$2)</f>
+        <v>1.0730175131250028</v>
       </c>
       <c r="F71">
         <f t="shared" si="16"/>
@@ -3861,7 +11830,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="16"/>
-        <v>0.80488082626581092</v>
+        <v>1.0702999599313121</v>
       </c>
       <c r="F72">
         <f t="shared" si="16"/>
@@ -3910,7 +11879,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="16"/>
-        <v>0.80283372138091802</v>
+        <v>1.0675777975877998</v>
       </c>
       <c r="F73">
         <f t="shared" si="16"/>
@@ -3959,7 +11928,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="16"/>
-        <v>0.80078354229997628</v>
+        <v>1.0648515472951143</v>
       </c>
       <c r="F74">
         <f t="shared" si="16"/>
@@ -4007,8 +11976,8 @@
         <v>1.0781735847651295</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75:BP78" si="17">+($B$3*(1-EXP(-$B$4*$C75))-$B$5*$C75)*EXP(-$B$6*E$2)</f>
-        <v>0.7987306366517325</v>
+        <f t="shared" ref="E75:N78" si="17">+($B$3*(1-EXP(-$B$4*$C75))-$B$5*$C75)*EXP(-$B$6*E$2)</f>
+        <v>1.0621216713167638</v>
       </c>
       <c r="F75">
         <f t="shared" si="17"/>
@@ -4057,7 +12026,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="17"/>
-        <v>0.79667531275522652</v>
+        <v>1.0593885796436995</v>
       </c>
       <c r="F76">
         <f t="shared" si="17"/>
@@ -4106,7 +12075,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="17"/>
-        <v>0.79461784406491542</v>
+        <v>1.0566526359052748</v>
       </c>
       <c r="F77">
         <f t="shared" si="17"/>
@@ -4155,7 +12124,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="17"/>
-        <v>0.7925584731131462</v>
+        <v>1.0539141626117958</v>
       </c>
       <c r="F78">
         <f t="shared" si="17"/>
@@ -4203,8 +12172,8 @@
         <v>1.0670598980130102</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:BP82" si="18">+($B$3*(1-EXP(-$B$4*$C79))-$B$5*$C79)*EXP(-$B$6*E$2)</f>
-        <v>0.79049741500681348</v>
+        <f t="shared" ref="E79:N82" si="18">+($B$3*(1-EXP(-$B$4*$C79))-$B$5*$C79)*EXP(-$B$6*E$2)</f>
+        <v>1.0511734458042425</v>
       </c>
       <c r="F79">
         <f t="shared" si="18"/>
@@ -4253,7 +12222,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="18"/>
-        <v>0.78843486052861911</v>
+        <v>1.0484307391782077</v>
       </c>
       <c r="F80">
         <f t="shared" si="18"/>
@@ -4302,7 +12271,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="18"/>
-        <v>0.78637097888763929</v>
+        <v>1.0456862677414958</v>
       </c>
       <c r="F81">
         <f t="shared" si="18"/>
@@ -4351,7 +12320,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="18"/>
-        <v>0.78430592015886225</v>
+        <v>1.0429402310581273</v>
       </c>
       <c r="F82">
         <f t="shared" si="18"/>
@@ -4399,8 +12368,8 @@
         <v>1.0559133072172917</v>
       </c>
       <c r="E83">
-        <f t="shared" ref="E83:BP86" si="19">+($B$3*(1-EXP(-$B$4*$C83))-$B$5*$C83)*EXP(-$B$6*E$2)</f>
-        <v>0.78223981744686222</v>
+        <f t="shared" ref="E83:N86" si="19">+($B$3*(1-EXP(-$B$4*$C83))-$B$5*$C83)*EXP(-$B$6*E$2)</f>
+        <v>1.0401928061255108</v>
       </c>
       <c r="F83">
         <f t="shared" si="19"/>
@@ -4449,7 +12418,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="19"/>
-        <v>0.78017278880480589</v>
+        <v>1.0374441499262648</v>
       </c>
       <c r="F84">
         <f t="shared" si="19"/>
@@ -4498,7 +12467,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="19"/>
-        <v>0.77810493893645971</v>
+        <v>1.0346944016914821</v>
       </c>
       <c r="F85">
         <f t="shared" si="19"/>
@@ -4547,7 +12516,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="19"/>
-        <v>0.77603636070573423</v>
+        <v>1.0319436849080645</v>
       </c>
       <c r="F86">
         <f t="shared" si="19"/>
@@ -4595,8 +12564,8 @@
         <v>1.0447463559458705</v>
       </c>
       <c r="E87">
-        <f t="shared" ref="E87:BP90" si="20">+($B$3*(1-EXP(-$B$4*$C87))-$B$5*$C87)*EXP(-$B$6*E$2)</f>
-        <v>0.77396713647552851</v>
+        <f t="shared" ref="E87:N90" si="20">+($B$3*(1-EXP(-$B$4*$C87))-$B$5*$C87)*EXP(-$B$6*E$2)</f>
+        <v>1.0291921090990681</v>
       </c>
       <c r="F87">
         <f t="shared" si="20"/>
@@ -4645,7 +12614,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="20"/>
-        <v>0.77189733929518234</v>
+        <v>1.0264397714027311</v>
       </c>
       <c r="F88">
         <f t="shared" si="20"/>
@@ -4694,7 +12663,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="20"/>
-        <v>0.76982703395364704</v>
+        <v>1.0236867579729403</v>
       </c>
       <c r="F89">
         <f t="shared" si="20"/>
@@ -4743,7 +12712,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="20"/>
-        <v>0.76775627791356815</v>
+        <v>1.0209331452213402</v>
       </c>
       <c r="F90">
         <f t="shared" si="20"/>
@@ -4791,8 +12760,8 @@
         <v>1.0335668059502356</v>
       </c>
       <c r="E91">
-        <f t="shared" ref="E91:BP94" si="21">+($B$3*(1-EXP(-$B$4*$C91))-$B$5*$C91)*EXP(-$B$6*E$2)</f>
-        <v>0.76568512213973994</v>
+        <f t="shared" ref="E91:N94" si="21">+($B$3*(1-EXP(-$B$4*$C91))-$B$5*$C91)*EXP(-$B$6*E$2)</f>
+        <v>1.0181790009189788</v>
       </c>
       <c r="F91">
         <f t="shared" si="21"/>
@@ -4841,7 +12810,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="21"/>
-        <v>0.76361361183388032</v>
+        <v>1.0154243851733844</v>
       </c>
       <c r="F92">
         <f t="shared" si="21"/>
@@ -4890,7 +12859,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="21"/>
-        <v>0.76154178708631659</v>
+        <v>1.0126693512951519</v>
       </c>
       <c r="F93">
         <f t="shared" si="21"/>
@@ -4939,7 +12908,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="21"/>
-        <v>0.75946968345397914</v>
+        <v>1.009913946566537</v>
       </c>
       <c r="F94">
         <f t="shared" si="21"/>
@@ -4987,8 +12956,8 @@
         <v>1.0223794600732989</v>
       </c>
       <c r="E95">
-        <f t="shared" ref="E95:BP98" si="22">+($B$3*(1-EXP(-$B$4*$C95))-$B$5*$C95)*EXP(-$B$6*E$2)</f>
-        <v>0.75739733247303676</v>
+        <f t="shared" ref="E95:N98" si="22">+($B$3*(1-EXP(-$B$4*$C95))-$B$5*$C95)*EXP(-$B$6*E$2)</f>
+        <v>1.0071582129231396</v>
       </c>
       <c r="F95">
         <f t="shared" si="22"/>
@@ -5037,7 +13006,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="22"/>
-        <v>0.75532476211356137</v>
+        <v>1.004402187558499</v>
       </c>
       <c r="F96">
         <f t="shared" si="22"/>
@@ -5086,7 +13055,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="22"/>
-        <v>0.75325199718278191</v>
+        <v>1.0016459034603267</v>
       </c>
       <c r="F97">
         <f t="shared" si="22"/>
@@ -5135,7 +13104,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="22"/>
-        <v>0.75117905968273613</v>
+        <v>0.99888938988609666</v>
       </c>
       <c r="F98">
         <f t="shared" si="22"/>
@@ -5183,8 +13152,8 @@
         <v>1.0111872902344885</v>
       </c>
       <c r="E99">
-        <f t="shared" ref="E99:BP102" si="23">+($B$3*(1-EXP(-$B$4*$C99))-$B$5*$C99)*EXP(-$B$6*E$2)</f>
-        <v>0.74910596912748162</v>
+        <f t="shared" ref="E99:N102" si="23">+($B$3*(1-EXP(-$B$4*$C99))-$B$5*$C99)*EXP(-$B$6*E$2)</f>
+        <v>0.99613267278486206</v>
       </c>
       <c r="F99">
         <f t="shared" si="23"/>
@@ -5233,7 +13202,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="23"/>
-        <v>0.74703274282443421</v>
+        <v>0.99337577517136699</v>
       </c>
       <c r="F100">
         <f t="shared" si="23"/>
@@ -5282,7 +13251,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="23"/>
-        <v>0.74495939612389561</v>
+        <v>0.99061871745785979</v>
       </c>
       <c r="F101">
         <f t="shared" si="23"/>
@@ -5331,7 +13300,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="23"/>
-        <v>0.74288594264036101</v>
+        <v>0.98786151774837927</v>
       </c>
       <c r="F102">
         <f t="shared" si="23"/>
@@ -5379,8 +13348,8 @@
         <v>0.99999213540818777</v>
       </c>
       <c r="E103">
-        <f t="shared" ref="E103:BP103" si="24">+($B$3*(1-EXP(-$B$4*$C103))-$B$5*$C103)*EXP(-$B$6*E$2)</f>
-        <v>0.7408123944488052</v>
+        <f t="shared" ref="E103:N103" si="24">+($B$3*(1-EXP(-$B$4*$C103))-$B$5*$C103)*EXP(-$B$6*E$2)</f>
+        <v>0.98510419209976829</v>
       </c>
       <c r="F103">
         <f t="shared" si="24"/>
@@ -5426,5 +13395,6 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mu Calculationxlsx.xlsx
+++ b/Mu Calculationxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K E S SRINIVAS\Documents\ABS Project SAE\ABS-Simulink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849E73F2-9AE2-4F8B-BB7F-1BABAF64993E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82EA46-E60E-4DD8-9915-9A31780DB090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4BA73F7-7503-47F0-9BBA-406C6E08481F}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Lambda</t>
-  </si>
-  <si>
     <t>Mu</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>Slip Ratio</t>
   </si>
 </sst>
 </file>
@@ -2428,304 +2428,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7709245999152996E-2</c:v>
+                  <c:v>0.13367579168737431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1087640264485505</c:v>
+                  <c:v>0.25193739912716762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15391682540643978</c:v>
+                  <c:v>0.35652785154245797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19383503636238386</c:v>
+                  <c:v>0.44899307717298803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22911058424160835</c:v>
+                  <c:v>0.53070419136828384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26026845935729798</c:v>
+                  <c:v>0.60287726435293676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28777428634729518</c:v>
+                  <c:v>0.6665908536616203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31204103721874094</c:v>
+                  <c:v>0.72280155401401092</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33343498528456106</c:v>
+                  <c:v>0.77235778881664641</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35228098583141337</c:v>
+                  <c:v>0.81601204212777345</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36886715965201022</c:v>
+                  <c:v>0.85443170743695518</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38344904696565174</c:v>
+                  <c:v>0.88820870966941745</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39625329161523798</c:v>
+                  <c:v>0.91786803913834492</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40748090865689324</c:v>
+                  <c:v>0.94387532048157996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41731018245198204</c:v>
+                  <c:v>0.96664352570626333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42589923704414567</c:v>
+                  <c:v>0.98653892812532118</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.43338831587922588</c:v>
+                  <c:v>1.0038863830254112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.43990180373545545</c:v>
+                  <c:v>1.018974011199246</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.44555002001466543</c:v>
+                  <c:v>1.0320573528661254</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.45043080924890622</c:v>
+                  <c:v>1.0433630518689494</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.45463095175327434</c:v>
+                  <c:v>1.0530921232638424</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.45822741476273376</c:v>
+                  <c:v>1.0614228514121689</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.46128846209093161</c:v>
+                  <c:v>1.0685133603575705</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.46387463830927966</c:v>
+                  <c:v>1.0745038935458884</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.46603964163549538</c:v>
+                  <c:v>1.0795188357553558</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4678310981162877</c:v>
+                  <c:v>1.0836685063878035</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.4692912482658026</c:v>
+                  <c:v>1.0870507499752817</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.47045755605929412</c:v>
+                  <c:v>1.089752346832888</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.47136324906205507</c:v>
+                  <c:v>1.0918502641955852</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47203779748080643</c:v>
+                  <c:v>1.0934127658770207</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.47250733904416325</c:v>
+                  <c:v>1.0945003964486066</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4727950558378034</c:v>
+                  <c:v>1.0951668541280599</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4729215085272806</c:v>
+                  <c:v>1.0954597649620901</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.47290493278706669</c:v>
+                  <c:v>1.0954213694648429</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.47276150220952812</c:v>
+                  <c:v>1.0950891316115721</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4725055614842702</c:v>
+                  <c:v>1.094496278967571</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.47214983320966153</c:v>
+                  <c:v>1.0936722817395601</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.47170560131820377</c:v>
+                  <c:v>1.0926432776561545</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.47118287376023948</c:v>
+                  <c:v>1.0914324488030325</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.47059052679145652</c:v>
+                  <c:v>1.0900603558457473</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4699364329444265</c:v>
+                  <c:v>1.0885452344587714</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.46922757452917563</c:v>
+                  <c:v>1.0869032582344709</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.46847014429916151</c:v>
+                  <c:v>1.0851487718624504</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.4676696347339856</c:v>
+                  <c:v>1.0832944979410795</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.46683091722605441</c:v>
+                  <c:v>1.0813517204028595</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.46595831231284873</c:v>
+                  <c:v>1.0793304471981331</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.46505565196735787</c:v>
+                  <c:v>1.0772395545825881</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.46412633484473864</c:v>
+                  <c:v>1.0750869150887958</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.46317337528170743</c:v>
+                  <c:v>1.0728795110267826</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.46219944675510105</c:v>
+                  <c:v>1.0706235351500064</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.46120692042616274</c:v>
+                  <c:v>1.068324479938068</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.46019789932625865</c:v>
+                  <c:v>1.0659872167833748</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.45917424867688567</c:v>
+                  <c:v>1.0636160662234067</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.45813762278110909</c:v>
+                  <c:v>1.0612148602311537</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.45708948887412537</c:v>
+                  <c:v>1.0587869974617721</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.4560311482768164</c:v>
+                  <c:v>1.0563354922519788</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.45496375515726656</c:v>
+                  <c:v>1.0538630180786102</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.4538883331707374</c:v>
+                  <c:v>1.0513719461029098</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.45280579021800071</c:v>
+                  <c:v>1.0488643793562435</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.45171693153480535</c:v>
+                  <c:v>1.0463421830601083</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.45062247130119337</c:v>
+                  <c:v>1.0438070115175695</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.44952304293803963</c:v>
+                  <c:v>1.0412603319638236</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.44841920823926296</c:v>
+                  <c:v>1.0387034457197521</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.44731146547137141</c:v>
+                  <c:v>1.0361375069534402</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.44620025655711376</c:v>
+                  <c:v>1.033563539320149</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.44508597344680723</c:v>
+                  <c:v>1.03098245072065</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.44396896376919859</c:v>
+                  <c:v>1.0283950463906926</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.44284953584332748</c:v>
+                  <c:v>1.0258020405103181</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.44172796312365159</c:v>
+                  <c:v>1.0232040665004023</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.44060448814251746</c:v>
+                  <c:v>1.0206016861548635</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.43947932600682005</c:v>
+                  <c:v>1.0179953977402094</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.43835266749926072</c:v>
+                  <c:v>1.0153856431791897</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.43722468182891611</c:v>
+                  <c:v>1.0127728144221211</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.43609551907077426</c:v>
+                  <c:v>1.0101572590977501</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.43496531232940927</c:v>
+                  <c:v>1.0075392855251168</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.43383417965798798</c:v>
+                  <c:v>1.0049191671586786</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.432702225760277</c:v>
+                  <c:v>1.0022971465307822</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.43156954350018645</c:v>
+                  <c:v>0.99967343874832271</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.43043621524061609</c:v>
+                  <c:v>0.99704823459400105</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.42930231403090502</c:v>
+                  <c:v>0.99442170327689428</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.42816790466000493</c:v>
+                  <c:v>0.99179399487199016</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.42703304459056107</c:v>
+                  <c:v>0.98916524248386295</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.42589778478736806</c:v>
+                  <c:v>0.98653556416567967</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.42476217045214348</c:v>
+                  <c:v>0.98390506462120619</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.42362624167521495</c:v>
+                  <c:v>0.98127383671435364</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.42249003401351271</c:v>
+                  <c:v>0.97864196280802096</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.42135357900320541</c:v>
+                  <c:v>0.97600951595154772</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.42021690461436517</c:v>
+                  <c:v>0.97337656093388536</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.4190800356542207</c:v>
+                  <c:v>0.97074315521767929</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.41794299412481017</c:v>
+                  <c:v>0.96810934976772411</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.4168057995401907</c:v>
+                  <c:v>0.9654751897857371</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.41566846920777861</c:v>
+                  <c:v>0.96284071536204641</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.41453101847787499</c:v>
+                  <c:v>0.960205962053582</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.41339346096497559</c:v>
+                  <c:v>0.95757096139651265</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.41225580874405476</c:v>
+                  <c:v>0.95493574136090997</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.41111807252465449</c:v>
+                  <c:v>0.95230032675400345</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.40998026180528591</c:v>
+                  <c:v>0.94966473957783049</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.40884238501037318</c:v>
+                  <c:v>0.94702899934644913</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.40770444961170965</c:v>
+                  <c:v>0.94439312336727477</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.40656646223618209</c:v>
+                  <c:v>0.94175712699060887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8372,17 +8372,17 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8407,7 +8407,7 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1.28</v>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>5.7709245999152996E-2</v>
+        <v>0.13367579168737431</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0.28000000000000003</v>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.1087640264485505</v>
+        <v>0.25193739912716762</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.03</v>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.15391682540643978</v>
+        <v>0.35652785154245797</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.19383503636238386</v>
+        <v>0.44899307717298803</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
@@ -8702,7 +8702,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.22911058424160835</v>
+        <v>0.53070419136828384</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.26026845935729798</v>
+        <v>0.60287726435293676</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.28777428634729518</v>
+        <v>0.6665908536616203</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.31204103721874094</v>
+        <v>0.72280155401401092</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -8898,7 +8898,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.33343498528456106</v>
+        <v>0.77235778881664641</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.35228098583141337</v>
+        <v>0.81601204212777345</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.36886715965201022</v>
+        <v>0.85443170743695518</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.38344904696565174</v>
+        <v>0.88820870966941745</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.39625329161523798</v>
+        <v>0.91786803913834492</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0.40748090865689324</v>
+        <v>0.94387532048157996</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0.41731018245198204</v>
+        <v>0.96664352570626333</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>0.42589923704414567</v>
+        <v>0.98653892812532118</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>0.43338831587922588</v>
+        <v>1.0038863830254112</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>0.43990180373545545</v>
+        <v>1.018974011199246</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0.44555002001466543</v>
+        <v>1.0320573528661254</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
@@ -9437,7 +9437,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>0.45043080924890622</v>
+        <v>1.0433630518689494</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>0.45463095175327434</v>
+        <v>1.0530921232638424</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>0.45822741476273376</v>
+        <v>1.0614228514121689</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>0.46128846209093161</v>
+        <v>1.0685133603575705</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>0.46387463830927966</v>
+        <v>1.0745038935458884</v>
       </c>
       <c r="H27">
         <f t="shared" si="4"/>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>0.46603964163549538</v>
+        <v>1.0795188357553558</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>0.4678310981162877</v>
+        <v>1.0836685063878035</v>
       </c>
       <c r="H29">
         <f t="shared" si="4"/>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>0.4692912482658026</v>
+        <v>1.0870507499752817</v>
       </c>
       <c r="H30">
         <f t="shared" si="4"/>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>0.47045755605929412</v>
+        <v>1.089752346832888</v>
       </c>
       <c r="H31">
         <f t="shared" si="5"/>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>0.47136324906205507</v>
+        <v>1.0918502641955852</v>
       </c>
       <c r="H32">
         <f t="shared" si="5"/>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>0.47203779748080643</v>
+        <v>1.0934127658770207</v>
       </c>
       <c r="H33">
         <f t="shared" si="5"/>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>0.47250733904416325</v>
+        <v>1.0945003964486066</v>
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>0.4727950558378034</v>
+        <v>1.0951668541280599</v>
       </c>
       <c r="H35">
         <f t="shared" si="6"/>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>0.4729215085272806</v>
+        <v>1.0954597649620901</v>
       </c>
       <c r="H36">
         <f t="shared" si="6"/>
@@ -10123,7 +10123,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="6"/>
-        <v>0.47290493278706669</v>
+        <v>1.0954213694648429</v>
       </c>
       <c r="H37">
         <f t="shared" si="6"/>
@@ -10172,7 +10172,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="6"/>
-        <v>0.47276150220952812</v>
+        <v>1.0950891316115721</v>
       </c>
       <c r="H38">
         <f t="shared" si="6"/>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="7"/>
-        <v>0.4725055614842702</v>
+        <v>1.094496278967571</v>
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
@@ -10270,7 +10270,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="7"/>
-        <v>0.47214983320966153</v>
+        <v>1.0936722817395601</v>
       </c>
       <c r="H40">
         <f t="shared" si="7"/>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="7"/>
-        <v>0.47170560131820377</v>
+        <v>1.0926432776561545</v>
       </c>
       <c r="H41">
         <f t="shared" si="7"/>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="7"/>
-        <v>0.47118287376023948</v>
+        <v>1.0914324488030325</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="8"/>
-        <v>0.47059052679145652</v>
+        <v>1.0900603558457473</v>
       </c>
       <c r="H43">
         <f t="shared" si="8"/>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="8"/>
-        <v>0.4699364329444265</v>
+        <v>1.0885452344587714</v>
       </c>
       <c r="H44">
         <f t="shared" si="8"/>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="8"/>
-        <v>0.46922757452917563</v>
+        <v>1.0869032582344709</v>
       </c>
       <c r="H45">
         <f t="shared" si="8"/>
@@ -10564,7 +10564,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="8"/>
-        <v>0.46847014429916151</v>
+        <v>1.0851487718624504</v>
       </c>
       <c r="H46">
         <f t="shared" si="8"/>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="9"/>
-        <v>0.4676696347339856</v>
+        <v>1.0832944979410795</v>
       </c>
       <c r="H47">
         <f t="shared" si="9"/>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="9"/>
-        <v>0.46683091722605441</v>
+        <v>1.0813517204028595</v>
       </c>
       <c r="H48">
         <f t="shared" si="9"/>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="9"/>
-        <v>0.46595831231284873</v>
+        <v>1.0793304471981331</v>
       </c>
       <c r="H49">
         <f t="shared" si="9"/>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="9"/>
-        <v>0.46505565196735787</v>
+        <v>1.0772395545825881</v>
       </c>
       <c r="H50">
         <f t="shared" si="9"/>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="10"/>
-        <v>0.46412633484473864</v>
+        <v>1.0750869150887958</v>
       </c>
       <c r="H51">
         <f t="shared" si="10"/>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="10"/>
-        <v>0.46317337528170743</v>
+        <v>1.0728795110267826</v>
       </c>
       <c r="H52">
         <f t="shared" si="10"/>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="10"/>
-        <v>0.46219944675510105</v>
+        <v>1.0706235351500064</v>
       </c>
       <c r="H53">
         <f t="shared" si="10"/>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="10"/>
-        <v>0.46120692042616274</v>
+        <v>1.068324479938068</v>
       </c>
       <c r="H54">
         <f t="shared" si="10"/>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="11"/>
-        <v>0.46019789932625865</v>
+        <v>1.0659872167833748</v>
       </c>
       <c r="H55">
         <f t="shared" si="11"/>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="11"/>
-        <v>0.45917424867688567</v>
+        <v>1.0636160662234067</v>
       </c>
       <c r="H56">
         <f t="shared" si="11"/>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="11"/>
-        <v>0.45813762278110909</v>
+        <v>1.0612148602311537</v>
       </c>
       <c r="H57">
         <f t="shared" si="11"/>
@@ -11152,7 +11152,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="11"/>
-        <v>0.45708948887412537</v>
+        <v>1.0587869974617721</v>
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="12"/>
-        <v>0.4560311482768164</v>
+        <v>1.0563354922519788</v>
       </c>
       <c r="H59">
         <f t="shared" si="12"/>
@@ -11250,7 +11250,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="12"/>
-        <v>0.45496375515726656</v>
+        <v>1.0538630180786102</v>
       </c>
       <c r="H60">
         <f t="shared" si="12"/>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="12"/>
-        <v>0.4538883331707374</v>
+        <v>1.0513719461029098</v>
       </c>
       <c r="H61">
         <f t="shared" si="12"/>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="12"/>
-        <v>0.45280579021800071</v>
+        <v>1.0488643793562435</v>
       </c>
       <c r="H62">
         <f t="shared" si="12"/>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="13"/>
-        <v>0.45171693153480535</v>
+        <v>1.0463421830601083</v>
       </c>
       <c r="H63">
         <f t="shared" si="13"/>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="13"/>
-        <v>0.45062247130119337</v>
+        <v>1.0438070115175695</v>
       </c>
       <c r="H64">
         <f t="shared" si="13"/>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="13"/>
-        <v>0.44952304293803963</v>
+        <v>1.0412603319638236</v>
       </c>
       <c r="H65">
         <f t="shared" si="13"/>
@@ -11544,7 +11544,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="13"/>
-        <v>0.44841920823926296</v>
+        <v>1.0387034457197521</v>
       </c>
       <c r="H66">
         <f t="shared" si="13"/>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="G67">
         <f t="shared" si="14"/>
-        <v>0.44731146547137141</v>
+        <v>1.0361375069534402</v>
       </c>
       <c r="H67">
         <f t="shared" si="14"/>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="14"/>
-        <v>0.44620025655711376</v>
+        <v>1.033563539320149</v>
       </c>
       <c r="H68">
         <f t="shared" si="14"/>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="14"/>
-        <v>0.44508597344680723</v>
+        <v>1.03098245072065</v>
       </c>
       <c r="H69">
         <f t="shared" si="14"/>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="14"/>
-        <v>0.44396896376919859</v>
+        <v>1.0283950463906926</v>
       </c>
       <c r="H70">
         <f t="shared" si="14"/>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="16"/>
-        <v>0.44284953584332748</v>
+        <v>1.0258020405103181</v>
       </c>
       <c r="H71">
         <f t="shared" si="16"/>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="16"/>
-        <v>0.44172796312365159</v>
+        <v>1.0232040665004023</v>
       </c>
       <c r="H72">
         <f t="shared" si="16"/>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="16"/>
-        <v>0.44060448814251746</v>
+        <v>1.0206016861548635</v>
       </c>
       <c r="H73">
         <f t="shared" si="16"/>
@@ -11936,7 +11936,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="16"/>
-        <v>0.43947932600682005</v>
+        <v>1.0179953977402094</v>
       </c>
       <c r="H74">
         <f t="shared" si="16"/>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="17"/>
-        <v>0.43835266749926072</v>
+        <v>1.0153856431791897</v>
       </c>
       <c r="H75">
         <f t="shared" si="17"/>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="17"/>
-        <v>0.43722468182891611</v>
+        <v>1.0127728144221211</v>
       </c>
       <c r="H76">
         <f t="shared" si="17"/>
@@ -12083,7 +12083,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="17"/>
-        <v>0.43609551907077426</v>
+        <v>1.0101572590977501</v>
       </c>
       <c r="H77">
         <f t="shared" si="17"/>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="17"/>
-        <v>0.43496531232940927</v>
+        <v>1.0075392855251168</v>
       </c>
       <c r="H78">
         <f t="shared" si="17"/>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="18"/>
-        <v>0.43383417965798798</v>
+        <v>1.0049191671586786</v>
       </c>
       <c r="H79">
         <f t="shared" si="18"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="18"/>
-        <v>0.432702225760277</v>
+        <v>1.0022971465307822</v>
       </c>
       <c r="H80">
         <f t="shared" si="18"/>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="18"/>
-        <v>0.43156954350018645</v>
+        <v>0.99967343874832271</v>
       </c>
       <c r="H81">
         <f t="shared" si="18"/>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="18"/>
-        <v>0.43043621524061609</v>
+        <v>0.99704823459400105</v>
       </c>
       <c r="H82">
         <f t="shared" si="18"/>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="19"/>
-        <v>0.42930231403090502</v>
+        <v>0.99442170327689428</v>
       </c>
       <c r="H83">
         <f t="shared" si="19"/>
@@ -12426,7 +12426,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="19"/>
-        <v>0.42816790466000493</v>
+        <v>0.99179399487199016</v>
       </c>
       <c r="H84">
         <f t="shared" si="19"/>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="19"/>
-        <v>0.42703304459056107</v>
+        <v>0.98916524248386295</v>
       </c>
       <c r="H85">
         <f t="shared" si="19"/>
@@ -12524,7 +12524,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="19"/>
-        <v>0.42589778478736806</v>
+        <v>0.98653556416567967</v>
       </c>
       <c r="H86">
         <f t="shared" si="19"/>
@@ -12573,7 +12573,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="20"/>
-        <v>0.42476217045214348</v>
+        <v>0.98390506462120619</v>
       </c>
       <c r="H87">
         <f t="shared" si="20"/>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="20"/>
-        <v>0.42362624167521495</v>
+        <v>0.98127383671435364</v>
       </c>
       <c r="H88">
         <f t="shared" si="20"/>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="20"/>
-        <v>0.42249003401351271</v>
+        <v>0.97864196280802096</v>
       </c>
       <c r="H89">
         <f t="shared" si="20"/>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="20"/>
-        <v>0.42135357900320541</v>
+        <v>0.97600951595154772</v>
       </c>
       <c r="H90">
         <f t="shared" si="20"/>
@@ -12769,7 +12769,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="21"/>
-        <v>0.42021690461436517</v>
+        <v>0.97337656093388536</v>
       </c>
       <c r="H91">
         <f t="shared" si="21"/>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="G92">
         <f t="shared" si="21"/>
-        <v>0.4190800356542207</v>
+        <v>0.97074315521767929</v>
       </c>
       <c r="H92">
         <f t="shared" si="21"/>
@@ -12867,7 +12867,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="21"/>
-        <v>0.41794299412481017</v>
+        <v>0.96810934976772411</v>
       </c>
       <c r="H93">
         <f t="shared" si="21"/>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="21"/>
-        <v>0.4168057995401907</v>
+        <v>0.9654751897857371</v>
       </c>
       <c r="H94">
         <f t="shared" si="21"/>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="22"/>
-        <v>0.41566846920777861</v>
+        <v>0.96284071536204641</v>
       </c>
       <c r="H95">
         <f t="shared" si="22"/>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="22"/>
-        <v>0.41453101847787499</v>
+        <v>0.960205962053582</v>
       </c>
       <c r="H96">
         <f t="shared" si="22"/>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="22"/>
-        <v>0.41339346096497559</v>
+        <v>0.95757096139651265</v>
       </c>
       <c r="H97">
         <f t="shared" si="22"/>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="22"/>
-        <v>0.41225580874405476</v>
+        <v>0.95493574136090997</v>
       </c>
       <c r="H98">
         <f t="shared" si="22"/>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="G99">
         <f t="shared" si="23"/>
-        <v>0.41111807252465449</v>
+        <v>0.95230032675400345</v>
       </c>
       <c r="H99">
         <f t="shared" si="23"/>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="G100">
         <f t="shared" si="23"/>
-        <v>0.40998026180528591</v>
+        <v>0.94966473957783049</v>
       </c>
       <c r="H100">
         <f t="shared" si="23"/>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="G101">
         <f t="shared" si="23"/>
-        <v>0.40884238501037318</v>
+        <v>0.94702899934644913</v>
       </c>
       <c r="H101">
         <f t="shared" si="23"/>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="G102">
         <f t="shared" si="23"/>
-        <v>0.40770444961170965</v>
+        <v>0.94439312336727477</v>
       </c>
       <c r="H102">
         <f t="shared" si="23"/>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="24"/>
-        <v>0.40656646223618209</v>
+        <v>0.94175712699060887</v>
       </c>
       <c r="H103">
         <f t="shared" si="24"/>

--- a/Mu Calculationxlsx.xlsx
+++ b/Mu Calculationxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K E S SRINIVAS\Documents\ABS Project SAE\ABS-Simulink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82EA46-E60E-4DD8-9915-9A31780DB090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149F3C38-DEC3-4C27-ABA4-84FE3158E027}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4BA73F7-7503-47F0-9BBA-406C6E08481F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mu</t>
   </si>
@@ -47,13 +47,24 @@
   <si>
     <t>Slip Ratio</t>
   </si>
+  <si>
+    <t>Velocities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,9 +92,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5012,6 +5026,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.7381690868762286E-2</c:v>
                 </c:pt>
@@ -5657,6 +5674,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2876673301836141E-2</c:v>
                 </c:pt>
@@ -6302,6 +6322,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>9.5392742037660322E-3</c:v>
                 </c:pt>
@@ -6947,6 +6970,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>7.0668681422289617E-3</c:v>
                 </c:pt>
@@ -8035,16 +8061,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8067,6 +8093,59 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCA4A34-049A-438F-B1B5-746D11117D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8542020" y="251460"/>
+          <a:ext cx="609600" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8369,34 +8448,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0B56F2-7D0C-4ECE-82BB-CA18E4EF3188}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
       <c r="D2">
         <v>0</v>
       </c>
@@ -8430,8 +8513,11 @@
       <c r="N2">
         <v>100</v>
       </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8469,8 +8555,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8525,7 +8627,7 @@
         <v>7.0668681422289617E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8580,7 +8682,7 @@
         <v>1.3318854201302351E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8635,7 +8737,7 @@
         <v>1.8848104687310435E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>0.04</v>
       </c>
@@ -8684,7 +8786,7 @@
         <v>2.3736346223224396E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>0.05</v>
       </c>
@@ -8733,7 +8835,7 @@
         <v>2.8056063821181278E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>0.06</v>
       </c>
@@ -8782,7 +8884,7 @@
         <v>3.1871545919801098E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8831,7 +8933,7 @@
         <v>3.5239811249140621E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>0.08</v>
       </c>
@@ -8880,7 +8982,7 @@
         <v>3.82114308861628E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>0.09</v>
       </c>
@@ -8929,7 +9031,7 @@
         <v>4.0831257352532922E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>0.1</v>
       </c>
@@ -8978,7 +9080,7 @@
         <v>4.3139071266354204E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>0.11</v>
       </c>
@@ -9027,7 +9129,7 @@
         <v>4.5170154870807611E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>0.12</v>
       </c>
@@ -9076,7 +9178,7 @@
         <v>4.6955800708423617E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>0.13</v>
       </c>
@@ -9232,7 +9334,7 @@
         <v>1.0475430884731518</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:N22" si="2">+($B$3*(1-EXP(-$B$4*$C19))-$B$5*$C19)*EXP(-$B$6*E$2)</f>
+        <f t="shared" ref="E19:N34" si="2">+($B$3*(1-EXP(-$B$4*$C19))-$B$5*$C19)*EXP(-$B$6*E$2)</f>
         <v>1.0319472037035693</v>
       </c>
       <c r="F19">
@@ -9452,19 +9554,19 @@
         <v>0.1831315008530105</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13566715261269971</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.10050469860349528</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.4455711989593734E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.515814807572126E-2</v>
       </c>
     </row>
@@ -9501,19 +9603,19 @@
         <v>0.18483915136187348</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13693221122422181</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.10144187707314117</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.5149990875938003E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5672482524959717E-2</v>
       </c>
     </row>
@@ -9550,19 +9652,19 @@
         <v>0.18630136410389905</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13801544506602734</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.10224435644040976</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.5744482212931716E-2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6112892539442086E-2</v>
       </c>
     </row>
@@ -9599,19 +9701,19 @@
         <v>0.18754589307457431</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13893741480366983</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.10292736842097247</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.6250469933076478E-2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6487737461966531E-2</v>
       </c>
     </row>
@@ -9648,19 +9750,19 @@
         <v>0.18859735385969731</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.13971635611162125</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.10350442233474454</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.6677961986714518E-2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5.6804431364498233E-2</v>
       </c>
     </row>
@@ -9697,19 +9799,19 @@
         <v>0.18947757852537411</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.14036844258224809</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.10398749987364493</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.7035834629534006E-2</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5.7069549938982438E-2</v>
       </c>
     </row>
@@ -9746,19 +9848,19 @@
         <v>0.19020593037720993</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.14090801890515534</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.10438722784510306</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.7331960394106336E-2</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5.7288925300990917E-2</v>
       </c>
     </row>
@@ -9795,19 +9897,19 @@
         <v>0.19079958312666839</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.14134780767871197</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.10471303138180507</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.7573321590457725E-2</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5.7467730073013569E-2</v>
       </c>
     </row>
@@ -9844,19 +9946,19 @@
         <v>0.19127376848942104</v>
       </c>
       <c r="K31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.1416990928354197</v>
       </c>
       <c r="L31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.1049732698265492</v>
       </c>
       <c r="M31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.7766110972046054E-2</v>
       </c>
       <c r="N31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.7610551959648156E-2</v>
       </c>
     </row>
@@ -9893,19 +9995,19 @@
         <v>0.19164199578538302</v>
       </c>
       <c r="K32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.14197188232562069</v>
       </c>
       <c r="L32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.10517535725130056</v>
       </c>
       <c r="M32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.7915821018472511E-2</v>
       </c>
       <c r="N32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.7721459889859987E-2</v>
       </c>
     </row>
@@ -9942,19 +10044,19 @@
         <v>0.19191624670647331</v>
       </c>
       <c r="K33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.14217505240500314</v>
       </c>
       <c r="L33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.10532586934800442</v>
       </c>
       <c r="M33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.8027323122143735E-2</v>
       </c>
       <c r="N33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.780406267990397E-2</v>
       </c>
     </row>
@@ -9991,19 +10093,19 @@
         <v>0.19210714806012136</v>
       </c>
       <c r="K34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.14231647560613839</v>
       </c>
       <c r="L34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.10543063823223257</v>
       </c>
       <c r="M34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.810493782054044E-2</v>
       </c>
       <c r="N34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.7861561062668966E-2</v>
       </c>
     </row>
@@ -10016,7 +10118,7 @@
         <v>1.1628881902782848</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:N38" si="6">+($B$3*(1-EXP(-$B$4*$C35))-$B$5*$C35)*EXP(-$B$6*E$2)</f>
+        <f t="shared" ref="E35:N50" si="6">+($B$3*(1-EXP(-$B$4*$C35))-$B$5*$C35)*EXP(-$B$6*E$2)</f>
         <v>1.1455750406665366</v>
       </c>
       <c r="F35">
@@ -10236,19 +10338,19 @@
         <v>0.19210642535820047</v>
       </c>
       <c r="K39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.14231594021538729</v>
       </c>
       <c r="L39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.10543024160500895</v>
       </c>
       <c r="M39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.8104643991866368E-2</v>
       </c>
       <c r="N39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.7861343389033454E-2</v>
       </c>
     </row>
@@ -10285,19 +10387,19 @@
         <v>0.1919617970346327</v>
       </c>
       <c r="K40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.14220879691806163</v>
       </c>
       <c r="L40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.1053508678981262</v>
       </c>
       <c r="M40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.8045842503564583E-2</v>
       </c>
       <c r="N40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.7817782175096283E-2</v>
       </c>
     </row>
@@ -10334,19 +10436,19 @@
         <v>0.19178118582567683</v>
       </c>
       <c r="K41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.14207499684360778</v>
       </c>
       <c r="L41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.1052517463650422</v>
       </c>
       <c r="M41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.7972411465794048E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.7763383124352308E-2</v>
       </c>
     </row>
@@ -10383,19 +10485,19 @@
         <v>0.19156866066029823</v>
       </c>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.1419175543287419</v>
       </c>
       <c r="L42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.10513511008131962</v>
       </c>
       <c r="M42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.7886005181619755E-2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.769937177465459E-2</v>
       </c>
     </row>
@@ -10432,19 +10534,19 @@
         <v>0.19132783035475176</v>
       </c>
       <c r="K43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.14173914285030076</v>
       </c>
       <c r="L43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.10500293960731165</v>
       </c>
       <c r="M43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.7788090886238517E-2</v>
       </c>
       <c r="N43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.7626835080570954E-2</v>
       </c>
     </row>
@@ -10481,19 +10583,19 @@
         <v>0.19106189564192635</v>
       </c>
       <c r="K44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.14154213356952794</v>
       </c>
       <c r="L44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.10485699154247174</v>
       </c>
       <c r="M44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.7679969900531873E-2</v>
       </c>
       <c r="N44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.7546737084321405E-2</v>
       </c>
     </row>
@@ -10530,19 +10632,19 @@
         <v>0.19077369531723354</v>
       </c>
       <c r="K45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.1413286295177891</v>
       </c>
       <c r="L45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.10469882385075426</v>
       </c>
       <c r="M45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.7562796392584385E-2</v>
       </c>
       <c r="N45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.7459932814652712E-2</v>
       </c>
     </row>
@@ -10579,19 +10681,19 @@
         <v>0.19046574716633946</v>
       </c>
       <c r="K46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.14110049591658153</v>
       </c>
       <c r="L46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.10452981832222993</v>
       </c>
       <c r="M46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.7437594017657624E-2</v>
       </c>
       <c r="N46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.7367180614034348E-2</v>
       </c>
     </row>
@@ -10628,19 +10730,19 @@
         <v>0.19014028426480681</v>
       </c>
       <c r="K47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.14085938706897019</v>
       </c>
       <c r="L47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.10435120049475188</v>
       </c>
       <c r="M47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>7.7305270676523305E-2</v>
       </c>
       <c r="N47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>5.7269153071900558E-2</v>
       </c>
     </row>
@@ -10677,19 +10779,19 @@
         <v>0.18979928717298872</v>
       </c>
       <c r="K48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.14060677021015189</v>
       </c>
       <c r="L48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.1041640573228879</v>
       </c>
       <c r="M48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>7.71666316049303E-2</v>
       </c>
       <c r="N48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>5.716644672156606E-2</v>
       </c>
     </row>
@@ -10726,19 +10828,19 @@
         <v>0.18944451249033872</v>
       </c>
       <c r="K49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.14034394666100819</v>
       </c>
       <c r="L49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.10396935284885801</v>
       </c>
       <c r="M49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>7.7022390982920699E-2</v>
       </c>
       <c r="N49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>5.7059590640618892E-2</v>
       </c>
     </row>
@@ -10775,19 +10877,19 @@
         <v>0.18907751818081117</v>
       </c>
       <c r="K50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.14007207058962365</v>
       </c>
       <c r="L50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.10376794210140899</v>
       </c>
       <c r="M50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>7.6873182231369352E-2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>5.6949054078784478E-2</v>
       </c>
     </row>
@@ -10800,7 +10902,7 @@
         <v>1.1415665771539911</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:N54" si="10">+($B$3*(1-EXP(-$B$4*$C51))-$B$5*$C51)*EXP(-$B$6*E$2)</f>
+        <f t="shared" ref="E51:N66" si="10">+($B$3*(1-EXP(-$B$4*$C51))-$B$5*$C51)*EXP(-$B$6*E$2)</f>
         <v>1.1245708650061974</v>
       </c>
       <c r="F51">
@@ -11020,19 +11122,19 @@
         <v>0.18710250334241546</v>
       </c>
       <c r="K55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.13860894361122336</v>
       </c>
       <c r="L55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.10268403097663907</v>
       </c>
       <c r="M55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7.6070201120540165E-2</v>
       </c>
       <c r="N55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.6354191041018978E-2</v>
       </c>
     </row>
@@ -11069,19 +11171,19 @@
         <v>0.18668631804620664</v>
       </c>
       <c r="K56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.13830062596061207</v>
       </c>
       <c r="L56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.10245562364330844</v>
       </c>
       <c r="M56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7.5900992806271522E-2</v>
       </c>
       <c r="N56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.6228838438717919E-2</v>
       </c>
     </row>
@@ -11118,19 +11220,19 @@
         <v>0.18626485740848245</v>
       </c>
       <c r="K57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.13798840024088585</v>
       </c>
       <c r="L57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.10222432114116979</v>
       </c>
       <c r="M57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7.5729639698197931E-2</v>
       </c>
       <c r="N57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.610189693408657E-2</v>
       </c>
     </row>
@@ -11167,19 +11269,19 @@
         <v>0.18583871796255752</v>
       </c>
       <c r="K58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.13767270837479345</v>
       </c>
       <c r="L58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.10199045085464753</v>
       </c>
       <c r="M58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7.5556384328666182E-2</v>
       </c>
       <c r="N58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.5973546199506501E-2</v>
       </c>
     </row>
@@ -11216,19 +11318,19 @@
         <v>0.18540842878601993</v>
       </c>
       <c r="K59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.13735394231265227</v>
       </c>
       <c r="L59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.10175430314767839</v>
       </c>
       <c r="M59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.5381441804571236E-2</v>
       </c>
       <c r="N59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.5843945590084917E-2</v>
       </c>
     </row>
@@ -11265,19 +11367,19 @@
         <v>0.18497445912859511</v>
       </c>
       <c r="K60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.13703244968320893</v>
       </c>
       <c r="L60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.10151613554997189</v>
       </c>
       <c r="M60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.5205002908614274E-2</v>
       </c>
       <c r="N60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.5713236441123033E-2</v>
       </c>
     </row>
@@ -11314,19 +11416,19 @@
         <v>0.18453722517745438</v>
       </c>
       <c r="K61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.13670853880550324</v>
       </c>
       <c r="L61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.10127617646989051</v>
       </c>
       <c r="M61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.5027236849871962E-2</v>
       </c>
       <c r="N61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.5581544105787951E-2</v>
       </c>
     </row>
@@ -11363,19 +11465,19 @@
         <v>0.18409709605750565</v>
       </c>
       <c r="K62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.13638248313399262</v>
       </c>
       <c r="L62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.10103462848747882</v>
       </c>
       <c r="M62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.4848293703332472E-2</v>
       </c>
       <c r="N62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.5448979762365375E-2</v>
       </c>
     </row>
@@ -11412,19 +11514,19 @@
         <v>0.1836543991531733</v>
       </c>
       <c r="K63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.13605452520102382</v>
       </c>
       <c r="L63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.10079167127511843</v>
       </c>
       <c r="M63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>7.4668306573569862E-2</v>
       </c>
       <c r="N63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>5.5315642017149023E-2</v>
       </c>
     </row>
@@ -11461,19 +11563,19 @@
         <v>0.18320942482839409</v>
       </c>
       <c r="K64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.13572488011349182</v>
       </c>
       <c r="L64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.10054746418791649</v>
       </c>
       <c r="M64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>7.4487393513751055E-2</v>
       </c>
       <c r="N64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>5.518161832607598E-2</v>
       </c>
     </row>
@@ -11510,19 +11612,19 @@
         <v>0.1827624306128775</v>
       </c>
       <c r="K65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.13539373865409782</v>
       </c>
       <c r="L65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.10030214856117428</v>
       </c>
       <c r="M65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>7.430565922764247E-2</v>
       </c>
       <c r="N65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>5.5046986255604155E-2</v>
       </c>
     </row>
@@ -11559,19 +11661,19 @@
         <v>0.182313644914986</v>
       </c>
       <c r="K66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.13506127003191842</v>
       </c>
       <c r="L66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.10005584974805884</v>
       </c>
       <c r="M66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>7.4123196579154269E-2</v>
       </c>
       <c r="N66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>5.4911814601010252E-2</v>
       </c>
     </row>
@@ -11584,7 +11686,7 @@
         <v>1.1002086721295594</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:N70" si="14">+($B$3*(1-EXP(-$B$4*$C67))-$B$5*$C67)*EXP(-$B$6*E$2)</f>
+        <f t="shared" ref="E67:N82" si="14">+($B$3*(1-EXP(-$B$4*$C67))-$B$5*$C67)*EXP(-$B$6*E$2)</f>
         <v>1.0838286989696604</v>
       </c>
       <c r="F67">
@@ -11804,19 +11906,19 @@
         <v>0.18004918510410389</v>
       </c>
       <c r="K71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.13338371694401549</v>
       </c>
       <c r="L71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.8813087854379464E-2</v>
       </c>
       <c r="M71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>7.3202535924347681E-2</v>
       </c>
       <c r="N71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.4229772412864766E-2</v>
       </c>
     </row>
@@ -11853,19 +11955,19 @@
         <v>0.17959318766509094</v>
       </c>
       <c r="K72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.13304590573261049</v>
       </c>
       <c r="L72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.8562831153820071E-2</v>
       </c>
       <c r="M72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>7.3017141200725597E-2</v>
       </c>
       <c r="N72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.409242862358727E-2</v>
       </c>
     </row>
@@ -11902,19 +12004,19 @@
         <v>0.17913641682428416</v>
       </c>
       <c r="K73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.13270752157106472</v>
       </c>
       <c r="L73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.8312150001356874E-2</v>
       </c>
       <c r="M73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>7.2831432035399352E-2</v>
       </c>
       <c r="N73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.3954851890166002E-2</v>
       </c>
     </row>
@@ -11951,19 +12053,19 @@
         <v>0.17867896003762065</v>
       </c>
       <c r="K74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.13236862924832987</v>
       </c>
       <c r="L74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.8061092393825752E-2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>7.2645443985299554E-2</v>
       </c>
       <c r="N74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>5.3817068553822997E-2</v>
       </c>
     </row>
@@ -12000,19 +12102,19 @@
         <v>0.17822089487155843</v>
       </c>
       <c r="K75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.13202928622705137</v>
       </c>
       <c r="L75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>9.7809700900601454E-2</v>
       </c>
       <c r="M75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>7.2459208586594603E-2</v>
       </c>
       <c r="N75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>5.3679101977126456E-2</v>
       </c>
     </row>
@@ -12049,19 +12151,19 @@
         <v>0.17776229012137412</v>
       </c>
       <c r="K76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.13168954347202369</v>
       </c>
       <c r="L76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>9.7558013277332323E-2</v>
       </c>
       <c r="M76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>7.2272753809356757E-2</v>
       </c>
       <c r="N76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>5.3540972880815503E-2</v>
       </c>
     </row>
@@ -12098,19 +12200,19 @@
         <v>0.17730320680300463</v>
       </c>
       <c r="K77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.13134944618496452</v>
       </c>
       <c r="L77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>9.7306063010274488E-2</v>
       </c>
       <c r="M77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>7.208610446081469E-2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>5.3402699642537167E-2</v>
       </c>
     </row>
@@ -12147,19 +12249,19 @@
         <v>0.17684369903273134</v>
       </c>
       <c r="K78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.13100903445620124</v>
       </c>
       <c r="L78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>9.7053879799072887E-2</v>
       </c>
       <c r="M78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>7.189928254300651E-2</v>
       </c>
       <c r="N78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>5.3264298561802169E-2</v>
       </c>
     </row>
@@ -12196,19 +12298,19 @@
         <v>0.17638381480739013</v>
       </c>
       <c r="K79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.13066834384266438</v>
       </c>
       <c r="L79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>9.6801489984949529E-2</v>
       </c>
       <c r="M79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>7.1712307569989461E-2</v>
       </c>
       <c r="N79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>5.3125784094979665E-2</v>
       </c>
     </row>
@@ -12245,19 +12347,19 @@
         <v>0.17592359669635574</v>
       </c>
       <c r="K80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.13032740588052236</v>
       </c>
       <c r="L80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>9.6548916930472642E-2</v>
       </c>
       <c r="M80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>7.152519684917974E-2</v>
       </c>
       <c r="N80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>5.298716906371894E-2</v>
       </c>
     </row>
@@ -12294,19 +12396,19 @@
         <v>0.1754630824552765</v>
       </c>
       <c r="K81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.12998624853984747</v>
       </c>
       <c r="L81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>9.629618135638135E-2</v>
       </c>
       <c r="M81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>7.1337965730878458E-2</v>
       </c>
       <c r="N81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>5.2848464839802732E-2</v>
       </c>
     </row>
@@ -12343,19 +12445,19 @@
         <v>0.17500230557040855</v>
       </c>
       <c r="K82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.12964489662786832</v>
       </c>
       <c r="L82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>9.6043301640322681E-2</v>
       </c>
       <c r="M82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>7.115062782958137E-2</v>
       </c>
       <c r="N82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>5.2709681509097578E-2</v>
       </c>
     </row>
@@ -12368,7 +12470,7 @@
         <v>1.0559133072172917</v>
       </c>
       <c r="E83">
-        <f t="shared" ref="E83:N86" si="19">+($B$3*(1-EXP(-$B$4*$C83))-$B$5*$C83)*EXP(-$B$6*E$2)</f>
+        <f t="shared" ref="E83:N98" si="19">+($B$3*(1-EXP(-$B$4*$C83))-$B$5*$C83)*EXP(-$B$6*E$2)</f>
         <v>1.0401928061255108</v>
       </c>
       <c r="F83">
@@ -12588,19 +12690,19 @@
         <v>0.17269541111140632</v>
       </c>
       <c r="K87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.12793590717944978</v>
       </c>
       <c r="L87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.4777251117981423E-2</v>
       </c>
       <c r="M87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7.021271453432737E-2</v>
       </c>
       <c r="N87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.2014858250553776E-2</v>
       </c>
     </row>
@@ -12637,19 +12739,19 @@
         <v>0.17223357693508096</v>
       </c>
       <c r="K88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.12759377200669442</v>
       </c>
       <c r="L88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.4523791148068151E-2</v>
       </c>
       <c r="M88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7.0024946770402163E-2</v>
       </c>
       <c r="N88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.1875756469781327E-2</v>
       </c>
     </row>
@@ -12686,19 +12788,19 @@
         <v>0.17177162937266802</v>
       </c>
       <c r="K89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.12725155283545941</v>
       </c>
       <c r="L89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.4270268950550656E-2</v>
       </c>
       <c r="M89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.9837132907133948E-2</v>
       </c>
       <c r="N89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.1736620537775599E-2</v>
       </c>
     </row>
@@ -12735,19 +12837,19 @@
         <v>0.17130958124581686</v>
       </c>
       <c r="K90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.12690925916425622</v>
       </c>
       <c r="L90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.4016691562099297E-2</v>
       </c>
       <c r="M90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.9649278157416297E-2</v>
       </c>
       <c r="N90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.1597454316343161E-2</v>
       </c>
     </row>
@@ -12784,19 +12886,19 @@
         <v>0.17084744392631024</v>
       </c>
       <c r="K91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.1265668994175087</v>
       </c>
       <c r="L91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>9.3763065223680761E-2</v>
       </c>
       <c r="M91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6.9461387144671052E-2</v>
       </c>
       <c r="N91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5.1458261230599149E-2</v>
       </c>
     </row>
@@ -12833,19 +12935,19 @@
         <v>0.17038522750001467</v>
       </c>
       <c r="K92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.12622448106701054</v>
       </c>
       <c r="L92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>9.3509395470535953E-2</v>
       </c>
       <c r="M92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6.9273463969505539E-2</v>
       </c>
       <c r="N92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5.1319044318348175E-2</v>
       </c>
     </row>
@@ -12882,19 +12984,19 @@
         <v>0.16992294091229129</v>
       </c>
       <c r="K93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.1258820107396483</v>
       </c>
       <c r="L93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>9.3255687211983157E-2</v>
       </c>
       <c r="M93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6.9085512268832208E-2</v>
       </c>
       <c r="N93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5.1179806273881252E-2</v>
       </c>
     </row>
@@ -12931,19 +13033,19 @@
         <v>0.16946059209696368</v>
       </c>
       <c r="K94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.12553949431294301</v>
       </c>
       <c r="L94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>9.300194480219709E-2</v>
       </c>
       <c r="M94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6.8897535268303001E-2</v>
       </c>
       <c r="N94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5.1040549486820116E-2</v>
       </c>
     </row>
@@ -12980,19 +13082,19 @@
         <v>0.16899818809070227</v>
       </c>
       <c r="K95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0.12519693699978832</v>
       </c>
       <c r="L95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>9.2748172102984319E-2</v>
       </c>
       <c r="M95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>6.8709535828814602E-2</v>
       </c>
       <c r="N95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>5.0901276076569163E-2</v>
       </c>
     </row>
@@ -13029,19 +13131,19 @@
         <v>0.16853573513447365</v>
       </c>
       <c r="K96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0.12485434342360602</v>
       </c>
       <c r="L96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>9.2494372539459968E-2</v>
       </c>
       <c r="M96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>6.8521516487754688E-2</v>
       </c>
       <c r="N96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>5.0761987922871413E-2</v>
       </c>
     </row>
@@ -13078,19 +13180,19 @@
         <v>0.16807323876351876</v>
       </c>
       <c r="K97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0.12451171768500349</v>
       </c>
       <c r="L97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>9.2240549149428683E-2</v>
       </c>
       <c r="M97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>6.8333479495584312E-2</v>
       </c>
       <c r="N97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>5.062268669290941E-2</v>
       </c>
     </row>
@@ -13127,19 +13229,19 @@
         <v>0.16761070388715585</v>
       </c>
       <c r="K98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0.12416906342089307</v>
       </c>
       <c r="L98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>9.1986704627181393E-2</v>
       </c>
       <c r="M98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>6.8145426848283286E-2</v>
       </c>
       <c r="N98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>5.0483373865341373E-2</v>
       </c>
     </row>
@@ -13152,7 +13254,7 @@
         <v>1.0111872902344885</v>
       </c>
       <c r="E99">
-        <f t="shared" ref="E99:N102" si="23">+($B$3*(1-EXP(-$B$4*$C99))-$B$5*$C99)*EXP(-$B$6*E$2)</f>
+        <f t="shared" ref="E99:N103" si="23">+($B$3*(1-EXP(-$B$4*$C99))-$B$5*$C99)*EXP(-$B$6*E$2)</f>
         <v>0.99613267278486206</v>
       </c>
       <c r="F99">
@@ -13372,29 +13474,30 @@
         <v>0.16529758821330368</v>
       </c>
       <c r="K103">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.12245546518315892</v>
       </c>
       <c r="L103">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9.0717239829739851E-2</v>
       </c>
       <c r="M103">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>6.720498419582456E-2</v>
       </c>
       <c r="N103">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>4.9786676812893706E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:J1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Mu Calculationxlsx.xlsx
+++ b/Mu Calculationxlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K E S SRINIVAS\Documents\ABS Project SAE\ABS-Simulink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB4D275-28C7-4904-999C-EA06BE6648CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65140A3-00B1-4F01-833A-330B10508DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="704" activeTab="7" xr2:uid="{B4BA73F7-7503-47F0-9BBA-406C6E08481F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="704" xr2:uid="{B4BA73F7-7503-47F0-9BBA-406C6E08481F}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="2" r:id="rId1"/>
@@ -123,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,15 +131,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -148,6 +160,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31592,8 +31608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F42E3C-2478-4B15-8527-8F599B6A6BF0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31602,121 +31618,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1.2801</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>23.99</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>0.52</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>0.85699999999999998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>33.822000000000003</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>0.34699999999999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>1.1973</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>25.167999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>0.5373</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>0.1946</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>94.129000000000005</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>0.05</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>306.39</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>1.28</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>12</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.03</v>
       </c>
     </row>
@@ -31737,19 +31753,19 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>5</v>
       </c>
@@ -34316,25 +34332,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>5</v>
       </c>
@@ -36901,19 +36917,19 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>5</v>
       </c>
@@ -39480,19 +39496,19 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>5</v>
       </c>
@@ -42059,19 +42075,19 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>5</v>
       </c>
@@ -44638,19 +44654,19 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>5</v>
       </c>
@@ -47210,7 +47226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAE2773-DC95-45E8-8CFC-D9C4BFBB5863}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -47224,45 +47240,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
